--- a/data/trans_dic/DCD_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Provincia-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.1143152613363179</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.1879950272618961</v>
+        <v>0.1879950272618962</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.1509935680111598</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08504283412510956</v>
+        <v>0.08568732472072084</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1557917896543909</v>
+        <v>0.1522561299158794</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1305552010064675</v>
+        <v>0.1285409458007039</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.147601401587109</v>
+        <v>0.1537306262312548</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2251379769792221</v>
+        <v>0.2235956349799493</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.175384397641468</v>
+        <v>0.1769148841242892</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.2802298794418657</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2026808564396413</v>
+        <v>0.2026808564396412</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09267868797907956</v>
+        <v>0.09373153851029968</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2461121516536457</v>
+        <v>0.2468513228830025</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1785209879196865</v>
+        <v>0.1795412207170043</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1572478473593215</v>
+        <v>0.1607872392007617</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3149115569907242</v>
+        <v>0.3128868202116711</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2282947592747782</v>
+        <v>0.228323729237242</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.178595225250661</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.296525405806144</v>
+        <v>0.2965254058061439</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.2411022046406567</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1406593885855459</v>
+        <v>0.1448572227122993</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.258492778823401</v>
+        <v>0.2583075993842009</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2130841830628551</v>
+        <v>0.213376844709786</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2178132184777386</v>
+        <v>0.221022378966842</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3344403400325807</v>
+        <v>0.3348312380831554</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.268031065791447</v>
+        <v>0.2708936844565765</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1153005141504358</v>
+        <v>0.1120982422685762</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2437509006932429</v>
+        <v>0.2440970561941397</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1937308989029419</v>
+        <v>0.1908082351929325</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1945309176104033</v>
+        <v>0.1908949003623977</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3228006032128793</v>
+        <v>0.3275765736793586</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2501291397839311</v>
+        <v>0.2503335735032039</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.1966494480689319</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1523227989587498</v>
+        <v>0.1523227989587499</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07265368639047455</v>
+        <v>0.07229981109336414</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1614946777754258</v>
+        <v>0.161540729150554</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1283146601146796</v>
+        <v>0.1293537511262791</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1399394635264654</v>
+        <v>0.1398033397288649</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2333192168908181</v>
+        <v>0.2362545293735223</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1783543573917802</v>
+        <v>0.1788921623392991</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.2054031006623509</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.3538515651128072</v>
+        <v>0.3538515651128071</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.2786612036837872</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1646864120593595</v>
+        <v>0.1655604558192628</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.312217753279297</v>
+        <v>0.3093938989867526</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2450752280473806</v>
+        <v>0.2511457858160265</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2470209582732974</v>
+        <v>0.2475361009329578</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3995193080495739</v>
+        <v>0.3977724265974494</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3079259229607912</v>
+        <v>0.3105723234093676</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.3731258959676307</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2734039630529505</v>
+        <v>0.2734039630529506</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1385635512371637</v>
+        <v>0.138853035756824</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3409345185456683</v>
+        <v>0.3417264250439054</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.250248999347461</v>
+        <v>0.248426609381923</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1982875144505974</v>
+        <v>0.19674276311516</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4050977247559703</v>
+        <v>0.4052183029055355</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2982189807724974</v>
+        <v>0.2960017744438228</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.08966490003617561</v>
+        <v>0.08826586469166299</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1995271003727198</v>
+        <v>0.2023900466257758</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.153355608376141</v>
+        <v>0.1510725808083737</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1304300551067353</v>
+        <v>0.1291442702011366</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2484763785185195</v>
+        <v>0.2496226396776073</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1859956705621765</v>
+        <v>0.1838827865297173</v>
       </c>
     </row>
     <row r="28">
@@ -1010,7 +1010,7 @@
         <v>0.2810410391840895</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.2127422016770779</v>
+        <v>0.2127422016770778</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.129867320865736</v>
+        <v>0.1292144771635987</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2660306105763812</v>
+        <v>0.2682196122602832</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.204175684077065</v>
+        <v>0.2040562668892864</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1525644645291823</v>
+        <v>0.1525813764115688</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2930435315698691</v>
+        <v>0.2933860130067676</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2220594526485106</v>
+        <v>0.2212876510752373</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>27115</v>
+        <v>27321</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>49240</v>
+        <v>48122</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>82890</v>
+        <v>81611</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>47062</v>
+        <v>49016</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>71157</v>
+        <v>70670</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>111353</v>
+        <v>112324</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>49180</v>
+        <v>49738</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>134499</v>
+        <v>134903</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>192292</v>
+        <v>193391</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>83443</v>
+        <v>85321</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>172097</v>
+        <v>170991</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>245906</v>
+        <v>245937</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>44447</v>
+        <v>45774</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>92122</v>
+        <v>92056</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>143272</v>
+        <v>143469</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>68827</v>
+        <v>69842</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>119188</v>
+        <v>119327</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>180217</v>
+        <v>182142</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>43024</v>
+        <v>41829</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>102853</v>
+        <v>102999</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>154037</v>
+        <v>151713</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>72588</v>
+        <v>71231</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>136209</v>
+        <v>138225</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>198879</v>
+        <v>199042</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>14942</v>
+        <v>14870</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>36969</v>
+        <v>36980</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>55763</v>
+        <v>56215</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>28781</v>
+        <v>28753</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>53411</v>
+        <v>54083</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>77510</v>
+        <v>77743</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>44582</v>
+        <v>44818</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>82347</v>
+        <v>81603</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>130982</v>
+        <v>134227</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>66870</v>
+        <v>67010</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>105373</v>
+        <v>104912</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>164573</v>
+        <v>165988</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>99722</v>
+        <v>99931</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>263221</v>
+        <v>263832</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>373307</v>
+        <v>370589</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>142705</v>
+        <v>141593</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>312759</v>
+        <v>312852</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>444866</v>
+        <v>441559</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>71559</v>
+        <v>70443</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>165873</v>
+        <v>168253</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>249878</v>
+        <v>246158</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>104093</v>
+        <v>103066</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>206566</v>
+        <v>207519</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>303062</v>
+        <v>299619</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>458790</v>
+        <v>456484</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>994144</v>
+        <v>1002324</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1484299</v>
+        <v>1483431</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>538974</v>
+        <v>539034</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1095090</v>
+        <v>1096370</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1614309</v>
+        <v>1608698</v>
       </c>
     </row>
     <row r="40">
